--- a/Praktikum 1/Used Car Transaction.xlsx
+++ b/Praktikum 1/Used Car Transaction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS A416\Documents\Semester 5\MPDW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB959D8-EB0E-4742-B56E-F060F9E4FD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C423290F-EB62-4D6D-87E0-64BDF79C6C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2CBDF260-6783-4AD4-A7A4-0B168BE163EE}"/>
   </bookViews>
@@ -68,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,13 +385,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22C988D-A5B8-4253-AED5-B92F3F243069}">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -405,7 +405,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>41640</v>
       </c>
       <c r="B2">
         <v>635800</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>41671</v>
       </c>
       <c r="B3">
         <v>613513</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>41699</v>
       </c>
       <c r="B4">
         <v>649313</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>41730</v>
       </c>
       <c r="B5">
         <v>658105</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>41760</v>
       </c>
       <c r="B6">
         <v>659305</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>41791</v>
       </c>
       <c r="B7">
         <v>607736</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>41821</v>
       </c>
       <c r="B8">
         <v>677955</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>41852</v>
       </c>
       <c r="B9">
         <v>662660</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>41883</v>
       </c>
       <c r="B10">
         <v>646339</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>41913</v>
       </c>
       <c r="B11">
         <v>618856</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>41944</v>
       </c>
       <c r="B12">
         <v>567151</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>41974</v>
       </c>
       <c r="B13">
         <v>436396</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>42005</v>
       </c>
       <c r="B14">
         <v>643413</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>42036</v>
       </c>
       <c r="B15">
         <v>630045</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>42064</v>
       </c>
       <c r="B16">
         <v>607623</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>42095</v>
       </c>
       <c r="B17">
         <v>683303</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>42125</v>
       </c>
       <c r="B18">
         <v>685839</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>42156</v>
       </c>
       <c r="B19">
         <v>626001</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>42186</v>
       </c>
       <c r="B20">
         <v>699104</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>42217</v>
       </c>
       <c r="B21">
         <v>666658</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>42248</v>
       </c>
       <c r="B22">
         <v>625389</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>42278</v>
       </c>
       <c r="B23">
         <v>703401</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>42309</v>
       </c>
       <c r="B24">
         <v>604555</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>42339</v>
       </c>
       <c r="B25">
         <v>464684</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>42370</v>
       </c>
       <c r="B26">
         <v>688087</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>42401</v>
       </c>
       <c r="B27">
         <v>702115</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>42430</v>
       </c>
       <c r="B28">
         <v>673472</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>42461</v>
       </c>
       <c r="B29">
         <v>760308</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>42491</v>
       </c>
       <c r="B30">
         <v>723413</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>42522</v>
       </c>
       <c r="B31">
         <v>633647</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>42552</v>
       </c>
       <c r="B32">
         <v>720146</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>42583</v>
       </c>
       <c r="B33">
         <v>722880</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>42614</v>
       </c>
       <c r="B34">
         <v>705024</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>42644</v>
       </c>
       <c r="B35">
         <v>725820</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>42675</v>
       </c>
       <c r="B36">
         <v>641119</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>42705</v>
       </c>
       <c r="B37">
         <v>504053</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>42736</v>
       </c>
       <c r="B38">
         <v>698467</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>42767</v>
       </c>
       <c r="B39">
         <v>689042</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>42795</v>
       </c>
       <c r="B40">
         <v>746447</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>42826</v>
       </c>
       <c r="B41">
         <v>717710</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>42856</v>
       </c>
       <c r="B42">
         <v>719227</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>42887</v>
       </c>
       <c r="B43">
         <v>665217</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42917</v>
       </c>
       <c r="B44">
         <v>731640</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>42948</v>
       </c>
       <c r="B45">
         <v>702866</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>42979</v>
       </c>
       <c r="B46">
         <v>667572</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>43009</v>
       </c>
       <c r="B47">
         <v>686661</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>43040</v>
       </c>
       <c r="B48">
         <v>623507</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>43070</v>
       </c>
       <c r="B49">
         <v>464664</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>43101</v>
       </c>
       <c r="B50">
         <v>688430</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>43132</v>
       </c>
       <c r="B51">
         <v>658901</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>43160</v>
       </c>
       <c r="B52">
         <v>684330</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>43191</v>
       </c>
       <c r="B53">
         <v>705774</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>43221</v>
       </c>
       <c r="B54">
         <v>720092</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>43252</v>
       </c>
       <c r="B55">
         <v>667563</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>43282</v>
       </c>
       <c r="B56">
         <v>700392</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>43313</v>
       </c>
       <c r="B57">
         <v>708614</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>43344</v>
       </c>
       <c r="B58">
         <v>648451</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>43374</v>
       </c>
       <c r="B59">
         <v>691035</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>43405</v>
       </c>
       <c r="B60">
         <v>614047</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>43435</v>
       </c>
       <c r="B61">
         <v>457411</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>43466</v>
       </c>
       <c r="B62">
         <v>676871</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>43497</v>
       </c>
       <c r="B63">
         <v>646111</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>43525</v>
       </c>
       <c r="B64">
         <v>697162</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>43556</v>
       </c>
       <c r="B65">
         <v>690034</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>43586</v>
       </c>
       <c r="B66">
         <v>700703</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>43617</v>
       </c>
       <c r="B67">
         <v>643499</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>43647</v>
       </c>
       <c r="B68">
         <v>713352</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>43678</v>
       </c>
       <c r="B69">
         <v>705457</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>43709</v>
       </c>
       <c r="B70">
         <v>657573</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>43739</v>
       </c>
       <c r="B71">
         <v>689575</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>43770</v>
       </c>
       <c r="B72">
         <v>635662</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>43800</v>
       </c>
       <c r="B73">
         <v>479106</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>43831</v>
       </c>
       <c r="B74">
         <v>696707</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>43862</v>
       </c>
       <c r="B75">
         <v>672242</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>43891</v>
       </c>
       <c r="B76">
         <v>482970</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>43922</v>
       </c>
       <c r="B77">
         <v>177898</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>43952</v>
       </c>
       <c r="B78">
         <v>330554</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>43983</v>
       </c>
       <c r="B79">
         <v>530851</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>44013</v>
       </c>
       <c r="B80">
         <v>744818</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>44044</v>
       </c>
       <c r="B81">
         <v>725034</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>44075</v>
       </c>
       <c r="B82">
         <v>698747</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>44105</v>
       </c>
       <c r="B83">
         <v>715149</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>44136</v>
       </c>
       <c r="B84">
         <v>519142</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>44166</v>
       </c>
       <c r="B85">
         <v>458847</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>44197</v>
       </c>
       <c r="B86">
         <v>507632</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>44228</v>
       </c>
       <c r="B87">
         <v>541553</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>44256</v>
       </c>
       <c r="B88">
         <v>638570</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>44287</v>
       </c>
       <c r="B89">
         <v>724743</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>44317</v>
       </c>
       <c r="B90">
         <v>769782</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>44348</v>
       </c>
       <c r="B91">
         <v>672979</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>44378</v>
       </c>
       <c r="B92">
         <v>708326</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>44409</v>
       </c>
       <c r="B93">
         <v>682293</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>44440</v>
       </c>
       <c r="B94">
         <v>643844</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>44470</v>
       </c>
       <c r="B95">
         <v>653913</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>44501</v>
       </c>
       <c r="B96">
         <v>575421</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>44531</v>
       </c>
       <c r="B97">
         <v>411900</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>44562</v>
       </c>
       <c r="B98">
         <v>597715</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>44593</v>
       </c>
       <c r="B99">
         <v>581533</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>44621</v>
       </c>
       <c r="B100">
         <v>595103</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>44652</v>
       </c>
       <c r="B101">
         <v>603341</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>44682</v>
       </c>
       <c r="B102">
         <v>608661</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>44713</v>
       </c>
       <c r="B103">
         <v>547682</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>44743</v>
       </c>
       <c r="B104">
         <v>608571</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>44774</v>
       </c>
       <c r="B105">
         <v>614526</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>44805</v>
       </c>
       <c r="B106">
         <v>562350</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>44835</v>
       </c>
       <c r="B107">
         <v>607849</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>44866</v>
       </c>
       <c r="B108">
         <v>548410</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>44896</v>
       </c>
       <c r="B109">
         <v>415036</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>44927</v>
       </c>
       <c r="B110">
         <v>619301</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>44958</v>
       </c>
       <c r="B111">
         <v>606890</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>44986</v>
       </c>
       <c r="B112">
         <v>620958</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>45017</v>
       </c>
       <c r="B113">
         <v>613540</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>45047</v>
       </c>
       <c r="B114">
         <v>626649</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>45078</v>
       </c>
       <c r="B115">
         <v>592078</v>
